--- a/data/songs_short.xlsx
+++ b/data/songs_short.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaying\OneDrive\Documents\NUS\2023.2024\Sem2\DSA4213\Project\LLMasters\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blabbyduck/Desktop/Y3S2/DSA4213/LLMasters/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6EF7C9-0155-44AE-A485-AE2CE7A9F1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F53E7E-C51F-FD4C-B0B7-2E416AA40672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39280" yWindow="4820" windowWidth="23260" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="songs" sheetId="1" r:id="rId1"/>
@@ -5847,22 +5847,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6194,18 +6179,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="B596" sqref="B596"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6222,7 +6207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6239,7 +6224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6256,7 +6241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6273,7 +6258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6290,7 +6275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -6307,7 +6292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6324,7 +6309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -6341,7 +6326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -6358,7 +6343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -6375,7 +6360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -6392,7 +6377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -6409,7 +6394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -6426,7 +6411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -6443,7 +6428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6460,7 +6445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -6477,7 +6462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -6494,7 +6479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -6511,7 +6496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -6528,7 +6513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -6545,7 +6530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -6562,7 +6547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -6579,7 +6564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -6596,7 +6581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -6613,7 +6598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -6630,7 +6615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -6647,7 +6632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -6664,7 +6649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -6681,7 +6666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -6698,7 +6683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -6715,7 +6700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -6732,7 +6717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -6749,7 +6734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -6766,7 +6751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -6783,7 +6768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -6800,7 +6785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -6817,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -6834,7 +6819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -6851,7 +6836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -6868,7 +6853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -6885,7 +6870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -6902,7 +6887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -6919,7 +6904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -6936,7 +6921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -6953,7 +6938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -6970,7 +6955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -6987,7 +6972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -7004,7 +6989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -7021,7 +7006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -7038,7 +7023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -7055,7 +7040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -7072,7 +7057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>154</v>
       </c>
@@ -7089,7 +7074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -7106,7 +7091,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -7123,7 +7108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -7140,7 +7125,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -7157,7 +7142,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -7174,7 +7159,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>172</v>
       </c>
@@ -7191,7 +7176,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -7208,7 +7193,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -7225,7 +7210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -7242,7 +7227,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -7259,7 +7244,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>187</v>
       </c>
@@ -7276,7 +7261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -7293,7 +7278,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -7310,7 +7295,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -7327,7 +7312,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>199</v>
       </c>
@@ -7344,7 +7329,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -7361,7 +7346,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -7378,7 +7363,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -7395,7 +7380,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>210</v>
       </c>
@@ -7412,7 +7397,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>213</v>
       </c>
@@ -7429,7 +7414,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -7446,7 +7431,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -7463,7 +7448,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>222</v>
       </c>
@@ -7480,7 +7465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -7497,7 +7482,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>228</v>
       </c>
@@ -7514,7 +7499,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>231</v>
       </c>
@@ -7531,7 +7516,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>234</v>
       </c>
@@ -7548,7 +7533,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>237</v>
       </c>
@@ -7565,7 +7550,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>240</v>
       </c>
@@ -7582,7 +7567,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -7599,7 +7584,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>246</v>
       </c>
@@ -7616,7 +7601,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>249</v>
       </c>
@@ -7633,7 +7618,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>252</v>
       </c>
@@ -7650,7 +7635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>255</v>
       </c>
@@ -7667,7 +7652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>258</v>
       </c>
@@ -7684,7 +7669,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>261</v>
       </c>
@@ -7701,7 +7686,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -7718,7 +7703,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>267</v>
       </c>
@@ -7735,7 +7720,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -7752,7 +7737,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>273</v>
       </c>
@@ -7769,7 +7754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -7786,7 +7771,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>279</v>
       </c>
@@ -7803,7 +7788,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>282</v>
       </c>
@@ -7820,7 +7805,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -7837,7 +7822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -7854,7 +7839,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>291</v>
       </c>
@@ -7871,7 +7856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>294</v>
       </c>
@@ -7888,7 +7873,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>297</v>
       </c>
@@ -7905,7 +7890,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>300</v>
       </c>
@@ -7922,7 +7907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>303</v>
       </c>
@@ -7939,7 +7924,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -7956,7 +7941,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>310</v>
       </c>
@@ -7973,7 +7958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>313</v>
       </c>
@@ -7990,7 +7975,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>316</v>
       </c>
@@ -8007,7 +7992,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -8024,7 +8009,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -8041,7 +8026,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -8058,7 +8043,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>328</v>
       </c>
@@ -8075,7 +8060,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>331</v>
       </c>
@@ -8092,7 +8077,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>334</v>
       </c>
@@ -8109,7 +8094,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>337</v>
       </c>
@@ -8126,7 +8111,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>340</v>
       </c>
@@ -8143,7 +8128,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>343</v>
       </c>
@@ -8160,7 +8145,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>346</v>
       </c>
@@ -8177,7 +8162,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>349</v>
       </c>
@@ -8194,7 +8179,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>352</v>
       </c>
@@ -8211,7 +8196,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>354</v>
       </c>
@@ -8228,7 +8213,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>357</v>
       </c>
@@ -8245,7 +8230,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>360</v>
       </c>
@@ -8262,7 +8247,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>363</v>
       </c>
@@ -8279,7 +8264,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>366</v>
       </c>
@@ -8296,7 +8281,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>369</v>
       </c>
@@ -8313,7 +8298,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>372</v>
       </c>
@@ -8330,7 +8315,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>375</v>
       </c>
@@ -8347,7 +8332,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>378</v>
       </c>
@@ -8364,7 +8349,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>381</v>
       </c>
@@ -8381,7 +8366,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>384</v>
       </c>
@@ -8398,7 +8383,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>387</v>
       </c>
@@ -8415,7 +8400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>390</v>
       </c>
@@ -8432,7 +8417,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>393</v>
       </c>
@@ -8449,7 +8434,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>396</v>
       </c>
@@ -8466,7 +8451,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>399</v>
       </c>
@@ -8483,7 +8468,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>402</v>
       </c>
@@ -8500,7 +8485,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>405</v>
       </c>
@@ -8517,7 +8502,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -8534,7 +8519,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>411</v>
       </c>
@@ -8551,7 +8536,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>414</v>
       </c>
@@ -8568,7 +8553,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>417</v>
       </c>
@@ -8585,7 +8570,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>420</v>
       </c>
@@ -8602,7 +8587,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>423</v>
       </c>
@@ -8619,7 +8604,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>426</v>
       </c>
@@ -8636,7 +8621,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>429</v>
       </c>
@@ -8653,7 +8638,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>432</v>
       </c>
@@ -8670,7 +8655,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>435</v>
       </c>
@@ -8687,7 +8672,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>438</v>
       </c>
@@ -8704,7 +8689,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>441</v>
       </c>
@@ -8721,7 +8706,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>444</v>
       </c>
@@ -8738,7 +8723,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>447</v>
       </c>
@@ -8755,7 +8740,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -8772,7 +8757,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>454</v>
       </c>
@@ -8789,7 +8774,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>458</v>
       </c>
@@ -8806,7 +8791,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>460</v>
       </c>
@@ -8823,7 +8808,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>463</v>
       </c>
@@ -8840,7 +8825,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>466</v>
       </c>
@@ -8857,7 +8842,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>469</v>
       </c>
@@ -8874,7 +8859,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>472</v>
       </c>
@@ -8891,7 +8876,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>475</v>
       </c>
@@ -8908,7 +8893,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -8925,7 +8910,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>481</v>
       </c>
@@ -8942,7 +8927,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>484</v>
       </c>
@@ -8959,7 +8944,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>487</v>
       </c>
@@ -8976,7 +8961,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>490</v>
       </c>
@@ -8993,7 +8978,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>493</v>
       </c>
@@ -9010,7 +8995,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>496</v>
       </c>
@@ -9027,7 +9012,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>499</v>
       </c>
@@ -9044,7 +9029,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>502</v>
       </c>
@@ -9061,7 +9046,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>505</v>
       </c>
@@ -9078,7 +9063,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>508</v>
       </c>
@@ -9095,7 +9080,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -9112,7 +9097,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>514</v>
       </c>
@@ -9129,7 +9114,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>517</v>
       </c>
@@ -9146,7 +9131,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>520</v>
       </c>
@@ -9163,7 +9148,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>523</v>
       </c>
@@ -9180,7 +9165,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>525</v>
       </c>
@@ -9197,7 +9182,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>528</v>
       </c>
@@ -9214,7 +9199,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>531</v>
       </c>
@@ -9231,7 +9216,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>534</v>
       </c>
@@ -9248,7 +9233,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>537</v>
       </c>
@@ -9265,7 +9250,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>540</v>
       </c>
@@ -9282,7 +9267,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>543</v>
       </c>
@@ -9299,7 +9284,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>546</v>
       </c>
@@ -9316,7 +9301,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>549</v>
       </c>
@@ -9333,7 +9318,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>552</v>
       </c>
@@ -9350,7 +9335,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>555</v>
       </c>
@@ -9367,7 +9352,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>558</v>
       </c>
@@ -9384,7 +9369,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>561</v>
       </c>
@@ -9401,7 +9386,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>564</v>
       </c>
@@ -9418,7 +9403,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>567</v>
       </c>
@@ -9435,7 +9420,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>570</v>
       </c>
@@ -9452,7 +9437,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>573</v>
       </c>
@@ -9469,7 +9454,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>576</v>
       </c>
@@ -9486,7 +9471,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>579</v>
       </c>
@@ -9503,7 +9488,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>582</v>
       </c>
@@ -9520,7 +9505,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>585</v>
       </c>
@@ -9537,7 +9522,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>588</v>
       </c>
@@ -9554,7 +9539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>591</v>
       </c>
@@ -9571,7 +9556,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>594</v>
       </c>
@@ -9588,7 +9573,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>597</v>
       </c>
@@ -9605,7 +9590,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>600</v>
       </c>
@@ -9622,7 +9607,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>622</v>
       </c>
@@ -9639,7 +9624,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>626</v>
       </c>
@@ -9656,7 +9641,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>629</v>
       </c>
@@ -9673,7 +9658,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>632</v>
       </c>
@@ -9690,7 +9675,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>635</v>
       </c>
@@ -9707,7 +9692,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>638</v>
       </c>
@@ -9724,7 +9709,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>641</v>
       </c>
@@ -9741,7 +9726,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>644</v>
       </c>
@@ -9758,7 +9743,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>647</v>
       </c>
@@ -9775,7 +9760,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>650</v>
       </c>
@@ -9792,7 +9777,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>653</v>
       </c>
@@ -9809,7 +9794,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>656</v>
       </c>
@@ -9826,7 +9811,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>659</v>
       </c>
@@ -9843,7 +9828,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>662</v>
       </c>
@@ -9860,7 +9845,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>665</v>
       </c>
@@ -9877,7 +9862,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>668</v>
       </c>
@@ -9894,7 +9879,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>671</v>
       </c>
@@ -9911,7 +9896,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>674</v>
       </c>
@@ -9928,7 +9913,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>677</v>
       </c>
@@ -9945,7 +9930,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>680</v>
       </c>
@@ -9962,7 +9947,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>683</v>
       </c>
@@ -9979,7 +9964,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>686</v>
       </c>
@@ -9996,7 +9981,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>689</v>
       </c>
@@ -10013,7 +9998,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>692</v>
       </c>
@@ -10030,7 +10015,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>695</v>
       </c>
@@ -10047,7 +10032,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>698</v>
       </c>
@@ -10064,7 +10049,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>701</v>
       </c>
@@ -10081,7 +10066,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>704</v>
       </c>
@@ -10098,7 +10083,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>707</v>
       </c>
@@ -10115,7 +10100,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>710</v>
       </c>
@@ -10132,7 +10117,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>713</v>
       </c>
@@ -10149,7 +10134,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>716</v>
       </c>
@@ -10166,7 +10151,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>719</v>
       </c>
@@ -10183,7 +10168,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>722</v>
       </c>
@@ -10200,7 +10185,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>725</v>
       </c>
@@ -10217,7 +10202,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>728</v>
       </c>
@@ -10234,7 +10219,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>731</v>
       </c>
@@ -10251,7 +10236,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>734</v>
       </c>
@@ -10268,7 +10253,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>737</v>
       </c>
@@ -10285,7 +10270,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>740</v>
       </c>
@@ -10302,7 +10287,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>743</v>
       </c>
@@ -10319,7 +10304,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>746</v>
       </c>
@@ -10336,7 +10321,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>749</v>
       </c>
@@ -10353,7 +10338,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>752</v>
       </c>
@@ -10370,7 +10355,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>755</v>
       </c>
@@ -10387,7 +10372,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>758</v>
       </c>
@@ -10404,7 +10389,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>761</v>
       </c>
@@ -10421,7 +10406,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>764</v>
       </c>
@@ -10438,7 +10423,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>767</v>
       </c>
@@ -10455,7 +10440,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>770</v>
       </c>
@@ -10472,7 +10457,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>776</v>
       </c>
@@ -10489,7 +10474,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>780</v>
       </c>
@@ -10506,7 +10491,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>783</v>
       </c>
@@ -10523,7 +10508,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>786</v>
       </c>
@@ -10540,7 +10525,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>789</v>
       </c>
@@ -10557,7 +10542,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>791</v>
       </c>
@@ -10574,7 +10559,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>794</v>
       </c>
@@ -10591,7 +10576,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>797</v>
       </c>
@@ -10608,7 +10593,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>800</v>
       </c>
@@ -10625,7 +10610,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>803</v>
       </c>
@@ -10642,7 +10627,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>806</v>
       </c>
@@ -10659,7 +10644,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>809</v>
       </c>
@@ -10676,7 +10661,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>812</v>
       </c>
@@ -10693,7 +10678,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>815</v>
       </c>
@@ -10710,7 +10695,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>818</v>
       </c>
@@ -10727,7 +10712,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>821</v>
       </c>
@@ -10744,7 +10729,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>824</v>
       </c>
@@ -10761,7 +10746,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>827</v>
       </c>
@@ -10778,7 +10763,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>830</v>
       </c>
@@ -10795,7 +10780,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>833</v>
       </c>
@@ -10812,7 +10797,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>835</v>
       </c>
@@ -10829,7 +10814,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>838</v>
       </c>
@@ -10846,7 +10831,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>841</v>
       </c>
@@ -10863,7 +10848,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>844</v>
       </c>
@@ -10880,7 +10865,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>847</v>
       </c>
@@ -10897,7 +10882,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>850</v>
       </c>
@@ -10914,7 +10899,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>853</v>
       </c>
@@ -10931,7 +10916,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>856</v>
       </c>
@@ -10948,7 +10933,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>858</v>
       </c>
@@ -10965,7 +10950,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>861</v>
       </c>
@@ -10982,7 +10967,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>864</v>
       </c>
@@ -10999,7 +10984,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>867</v>
       </c>
@@ -11016,7 +11001,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>870</v>
       </c>
@@ -11033,7 +11018,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>873</v>
       </c>
@@ -11050,7 +11035,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>876</v>
       </c>
@@ -11067,7 +11052,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>879</v>
       </c>
@@ -11084,7 +11069,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>882</v>
       </c>
@@ -11101,7 +11086,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>885</v>
       </c>
@@ -11118,7 +11103,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>888</v>
       </c>
@@ -11135,7 +11120,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>891</v>
       </c>
@@ -11152,7 +11137,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>894</v>
       </c>
@@ -11169,7 +11154,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>897</v>
       </c>
@@ -11186,7 +11171,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>900</v>
       </c>
@@ -11203,7 +11188,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>903</v>
       </c>
@@ -11220,7 +11205,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>906</v>
       </c>
@@ -11237,7 +11222,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>909</v>
       </c>
@@ -11254,7 +11239,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>912</v>
       </c>
@@ -11271,7 +11256,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>915</v>
       </c>
@@ -11288,7 +11273,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>918</v>
       </c>
@@ -11305,7 +11290,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>921</v>
       </c>
@@ -11322,7 +11307,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>924</v>
       </c>
@@ -11339,7 +11324,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>928</v>
       </c>
@@ -11356,7 +11341,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>931</v>
       </c>
@@ -11373,7 +11358,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>934</v>
       </c>
@@ -11390,7 +11375,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>937</v>
       </c>
@@ -11407,7 +11392,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>940</v>
       </c>
@@ -11424,7 +11409,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>942</v>
       </c>
@@ -11441,7 +11426,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>945</v>
       </c>
@@ -11458,7 +11443,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>948</v>
       </c>
@@ -11475,7 +11460,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>951</v>
       </c>
@@ -11492,7 +11477,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>954</v>
       </c>
@@ -11509,7 +11494,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>957</v>
       </c>
@@ -11526,7 +11511,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>960</v>
       </c>
@@ -11543,7 +11528,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>963</v>
       </c>
@@ -11560,7 +11545,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>966</v>
       </c>
@@ -11577,7 +11562,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>969</v>
       </c>
@@ -11594,7 +11579,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>972</v>
       </c>
@@ -11611,7 +11596,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>975</v>
       </c>
@@ -11628,7 +11613,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>978</v>
       </c>
@@ -11645,7 +11630,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>981</v>
       </c>
@@ -11662,7 +11647,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>983</v>
       </c>
@@ -11679,7 +11664,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>986</v>
       </c>
@@ -11696,7 +11681,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>989</v>
       </c>
@@ -11713,7 +11698,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>992</v>
       </c>
@@ -11730,7 +11715,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>995</v>
       </c>
@@ -11747,7 +11732,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>998</v>
       </c>
@@ -11764,7 +11749,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1001</v>
       </c>
@@ -11781,7 +11766,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1004</v>
       </c>
@@ -11798,7 +11783,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1007</v>
       </c>
@@ -11815,7 +11800,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1010</v>
       </c>
@@ -11832,7 +11817,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1013</v>
       </c>
@@ -11849,7 +11834,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1016</v>
       </c>
@@ -11866,7 +11851,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1019</v>
       </c>
@@ -11883,7 +11868,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1022</v>
       </c>
@@ -11900,7 +11885,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1025</v>
       </c>
@@ -11917,7 +11902,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1028</v>
       </c>
@@ -11934,7 +11919,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1031</v>
       </c>
@@ -11951,7 +11936,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1034</v>
       </c>
@@ -11968,7 +11953,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1037</v>
       </c>
@@ -11985,7 +11970,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1040</v>
       </c>
@@ -12002,7 +11987,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1043</v>
       </c>
@@ -12019,7 +12004,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1046</v>
       </c>
@@ -12036,7 +12021,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1049</v>
       </c>
@@ -12053,7 +12038,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1052</v>
       </c>
@@ -12070,7 +12055,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1055</v>
       </c>
@@ -12087,7 +12072,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1058</v>
       </c>
@@ -12104,7 +12089,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1061</v>
       </c>
@@ -12121,7 +12106,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1064</v>
       </c>
@@ -12138,7 +12123,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1066</v>
       </c>
@@ -12155,7 +12140,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1069</v>
       </c>
@@ -12172,7 +12157,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1072</v>
       </c>
@@ -12189,7 +12174,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1076</v>
       </c>
@@ -12206,7 +12191,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1079</v>
       </c>
@@ -12223,7 +12208,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1082</v>
       </c>
@@ -12240,7 +12225,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1085</v>
       </c>
@@ -12257,7 +12242,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1088</v>
       </c>
@@ -12274,7 +12259,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1091</v>
       </c>
@@ -12291,7 +12276,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1094</v>
       </c>
@@ -12308,7 +12293,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1097</v>
       </c>
@@ -12325,7 +12310,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1100</v>
       </c>
@@ -12342,7 +12327,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1103</v>
       </c>
@@ -12359,7 +12344,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1106</v>
       </c>
@@ -12376,7 +12361,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1109</v>
       </c>
@@ -12393,7 +12378,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1112</v>
       </c>
@@ -12410,7 +12395,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1115</v>
       </c>
@@ -12427,7 +12412,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1118</v>
       </c>
@@ -12444,7 +12429,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1121</v>
       </c>
@@ -12461,7 +12446,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1124</v>
       </c>
@@ -12478,7 +12463,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1127</v>
       </c>
@@ -12495,7 +12480,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1130</v>
       </c>
@@ -12512,7 +12497,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1133</v>
       </c>
@@ -12529,7 +12514,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1136</v>
       </c>
@@ -12546,7 +12531,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1139</v>
       </c>
@@ -12563,7 +12548,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1142</v>
       </c>
@@ -12580,7 +12565,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1145</v>
       </c>
@@ -12597,7 +12582,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1148</v>
       </c>
@@ -12614,7 +12599,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1151</v>
       </c>
@@ -12631,7 +12616,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1154</v>
       </c>
@@ -12648,7 +12633,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1157</v>
       </c>
@@ -12665,7 +12650,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1160</v>
       </c>
@@ -12682,7 +12667,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1163</v>
       </c>
@@ -12699,7 +12684,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1166</v>
       </c>
@@ -12716,7 +12701,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1169</v>
       </c>
@@ -12733,7 +12718,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1172</v>
       </c>
@@ -12750,7 +12735,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1175</v>
       </c>
@@ -12767,7 +12752,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1178</v>
       </c>
@@ -12784,7 +12769,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1181</v>
       </c>
@@ -12801,7 +12786,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1184</v>
       </c>
@@ -12818,7 +12803,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1187</v>
       </c>
@@ -12835,7 +12820,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1190</v>
       </c>
@@ -12852,7 +12837,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1193</v>
       </c>
@@ -12869,7 +12854,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1196</v>
       </c>
@@ -12886,7 +12871,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1199</v>
       </c>
@@ -12903,7 +12888,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1202</v>
       </c>
@@ -12920,7 +12905,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1205</v>
       </c>
@@ -12937,7 +12922,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1208</v>
       </c>
@@ -12954,7 +12939,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1211</v>
       </c>
@@ -12971,7 +12956,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1214</v>
       </c>
@@ -12988,7 +12973,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1217</v>
       </c>
@@ -13005,7 +12990,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1220</v>
       </c>
@@ -13022,7 +13007,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1229</v>
       </c>
@@ -13039,7 +13024,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1233</v>
       </c>
@@ -13056,7 +13041,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1236</v>
       </c>
@@ -13073,7 +13058,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1239</v>
       </c>
@@ -13090,7 +13075,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1242</v>
       </c>
@@ -13107,7 +13092,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1245</v>
       </c>
@@ -13124,7 +13109,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1226</v>
       </c>
@@ -13141,7 +13126,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1248</v>
       </c>
@@ -13158,7 +13143,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1251</v>
       </c>
@@ -13175,7 +13160,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1254</v>
       </c>
@@ -13192,7 +13177,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1257</v>
       </c>
@@ -13209,7 +13194,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1223</v>
       </c>
@@ -13226,7 +13211,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1260</v>
       </c>
@@ -13243,7 +13228,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1263</v>
       </c>
@@ -13260,7 +13245,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1266</v>
       </c>
@@ -13277,7 +13262,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1269</v>
       </c>
@@ -13294,7 +13279,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1272</v>
       </c>
@@ -13311,7 +13296,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1275</v>
       </c>
@@ -13328,7 +13313,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1278</v>
       </c>
@@ -13345,7 +13330,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1281</v>
       </c>
@@ -13362,7 +13347,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1284</v>
       </c>
@@ -13379,7 +13364,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1286</v>
       </c>
@@ -13396,7 +13381,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1289</v>
       </c>
@@ -13413,7 +13398,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1220</v>
       </c>
@@ -13430,7 +13415,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1292</v>
       </c>
@@ -13447,7 +13432,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1294</v>
       </c>
@@ -13464,7 +13449,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1297</v>
       </c>
@@ -13481,7 +13466,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1300</v>
       </c>
@@ -13498,7 +13483,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1303</v>
       </c>
@@ -13515,7 +13500,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1306</v>
       </c>
@@ -13532,7 +13517,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1309</v>
       </c>
@@ -13549,7 +13534,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1312</v>
       </c>
@@ -13566,7 +13551,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1315</v>
       </c>
@@ -13583,7 +13568,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1318</v>
       </c>
@@ -13600,7 +13585,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1321</v>
       </c>
@@ -13617,7 +13602,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1324</v>
       </c>
@@ -13634,7 +13619,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1327</v>
       </c>
@@ -13651,7 +13636,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1330</v>
       </c>
@@ -13668,7 +13653,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1333</v>
       </c>
@@ -13685,7 +13670,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1336</v>
       </c>
@@ -13702,7 +13687,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1339</v>
       </c>
@@ -13719,7 +13704,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1342</v>
       </c>
@@ -13736,7 +13721,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1345</v>
       </c>
@@ -13753,7 +13738,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1348</v>
       </c>
@@ -13770,7 +13755,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1351</v>
       </c>
@@ -13787,7 +13772,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1354</v>
       </c>
@@ -13804,7 +13789,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1357</v>
       </c>
@@ -13821,7 +13806,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1360</v>
       </c>
@@ -13838,7 +13823,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1363</v>
       </c>
@@ -13855,7 +13840,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1366</v>
       </c>
@@ -13872,7 +13857,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1369</v>
       </c>
@@ -13889,7 +13874,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>616</v>
       </c>
@@ -13906,7 +13891,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1373</v>
       </c>
@@ -13923,7 +13908,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1376</v>
       </c>
@@ -13940,7 +13925,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1379</v>
       </c>
@@ -13957,7 +13942,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1382</v>
       </c>
@@ -13974,7 +13959,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1385</v>
       </c>
@@ -13991,7 +13976,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>573</v>
       </c>
@@ -14008,7 +13993,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1388</v>
       </c>
@@ -14025,7 +14010,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1391</v>
       </c>
@@ -14042,7 +14027,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1394</v>
       </c>
@@ -14059,7 +14044,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1397</v>
       </c>
@@ -14076,7 +14061,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1399</v>
       </c>
@@ -14093,7 +14078,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1402</v>
       </c>
@@ -14110,7 +14095,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1405</v>
       </c>
@@ -14127,7 +14112,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>508</v>
       </c>
@@ -14144,7 +14129,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>454</v>
       </c>
@@ -14161,7 +14146,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1408</v>
       </c>
@@ -14178,7 +14163,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1411</v>
       </c>
@@ -14195,7 +14180,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1414</v>
       </c>
@@ -14212,7 +14197,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1417</v>
       </c>
@@ -14229,7 +14214,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>514</v>
       </c>
@@ -14246,7 +14231,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>555</v>
       </c>
@@ -14263,7 +14248,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>606</v>
       </c>
@@ -14280,7 +14265,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1420</v>
       </c>
@@ -14297,7 +14282,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1423</v>
       </c>
@@ -14314,7 +14299,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>613</v>
       </c>
@@ -14331,7 +14316,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>543</v>
       </c>
@@ -14348,7 +14333,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>546</v>
       </c>
@@ -14365,7 +14350,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>460</v>
       </c>
@@ -14382,7 +14367,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>517</v>
       </c>
@@ -14399,7 +14384,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1426</v>
       </c>
@@ -14416,7 +14401,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1428</v>
       </c>
@@ -14433,7 +14418,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>597</v>
       </c>
@@ -14450,7 +14435,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1431</v>
       </c>
@@ -14467,7 +14452,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1434</v>
       </c>
@@ -14484,7 +14469,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1437</v>
       </c>
@@ -14501,7 +14486,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>594</v>
       </c>
@@ -14518,7 +14503,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1440</v>
       </c>
@@ -14535,7 +14520,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>609</v>
       </c>
@@ -14552,7 +14537,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1443</v>
       </c>
@@ -14569,7 +14554,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1446</v>
       </c>
@@ -14586,7 +14571,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>603</v>
       </c>
@@ -14603,7 +14588,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1449</v>
       </c>
@@ -14620,7 +14605,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1452</v>
       </c>
@@ -14637,7 +14622,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1455</v>
       </c>
@@ -14654,7 +14639,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1458</v>
       </c>
@@ -14671,7 +14656,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>619</v>
       </c>
@@ -14688,7 +14673,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>466</v>
       </c>
@@ -14705,7 +14690,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1461</v>
       </c>
@@ -14722,7 +14707,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1464</v>
       </c>
@@ -14739,7 +14724,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1468</v>
       </c>
@@ -14756,7 +14741,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1471</v>
       </c>
@@ -14773,7 +14758,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1474</v>
       </c>
@@ -14790,7 +14775,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1477</v>
       </c>
@@ -14807,7 +14792,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1480</v>
       </c>
@@ -14824,7 +14809,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1483</v>
       </c>
@@ -14841,7 +14826,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1486</v>
       </c>
@@ -14858,7 +14843,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1489</v>
       </c>
@@ -14875,7 +14860,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1492</v>
       </c>
@@ -14892,7 +14877,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1495</v>
       </c>
@@ -14909,7 +14894,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1498</v>
       </c>
@@ -14926,7 +14911,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1501</v>
       </c>
@@ -14943,7 +14928,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1504</v>
       </c>
@@ -14960,7 +14945,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1507</v>
       </c>
@@ -14977,7 +14962,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1510</v>
       </c>
@@ -14994,7 +14979,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1513</v>
       </c>
@@ -15011,7 +14996,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1516</v>
       </c>
@@ -15028,7 +15013,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1519</v>
       </c>
@@ -15045,7 +15030,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1522</v>
       </c>
@@ -15062,7 +15047,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1524</v>
       </c>
@@ -15079,7 +15064,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1527</v>
       </c>
@@ -15096,7 +15081,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1530</v>
       </c>
@@ -15113,7 +15098,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1533</v>
       </c>
@@ -15130,7 +15115,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1536</v>
       </c>
@@ -15147,7 +15132,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1538</v>
       </c>
@@ -15164,7 +15149,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1541</v>
       </c>
@@ -15181,7 +15166,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1544</v>
       </c>
@@ -15198,7 +15183,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1547</v>
       </c>
@@ -15215,7 +15200,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1550</v>
       </c>
@@ -15232,7 +15217,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1553</v>
       </c>
@@ -15249,7 +15234,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1556</v>
       </c>
@@ -15266,7 +15251,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1559</v>
       </c>
@@ -15283,7 +15268,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1562</v>
       </c>
@@ -15300,7 +15285,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1565</v>
       </c>
@@ -15317,7 +15302,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1016</v>
       </c>
@@ -15334,7 +15319,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1568</v>
       </c>
@@ -15351,7 +15336,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1571</v>
       </c>
@@ -15368,7 +15353,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1574</v>
       </c>
@@ -15385,7 +15370,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1577</v>
       </c>
@@ -15402,7 +15387,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1580</v>
       </c>
@@ -15419,7 +15404,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1583</v>
       </c>
@@ -15436,7 +15421,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1586</v>
       </c>
@@ -15453,7 +15438,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1589</v>
       </c>
@@ -15470,7 +15455,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1592</v>
       </c>
@@ -15487,7 +15472,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1595</v>
       </c>
@@ -15504,7 +15489,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1598</v>
       </c>
@@ -15521,7 +15506,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1601</v>
       </c>
@@ -15538,7 +15523,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>1604</v>
       </c>
@@ -15555,7 +15540,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>1606</v>
       </c>
@@ -15572,7 +15557,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>1609</v>
       </c>
@@ -15589,7 +15574,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>1613</v>
       </c>
@@ -15606,7 +15591,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1616</v>
       </c>
@@ -15623,7 +15608,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1619</v>
       </c>
@@ -15640,7 +15625,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1622</v>
       </c>
@@ -15657,7 +15642,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1625</v>
       </c>
@@ -15674,7 +15659,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>1628</v>
       </c>
@@ -15691,7 +15676,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>1631</v>
       </c>
@@ -15708,7 +15693,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1634</v>
       </c>
@@ -15725,7 +15710,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1637</v>
       </c>
@@ -15742,7 +15727,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1640</v>
       </c>
@@ -15759,7 +15744,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1643</v>
       </c>
@@ -15776,7 +15761,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1646</v>
       </c>
@@ -15793,7 +15778,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1649</v>
       </c>
@@ -15810,7 +15795,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1652</v>
       </c>
@@ -15827,7 +15812,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1655</v>
       </c>
@@ -15844,7 +15829,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1658</v>
       </c>
@@ -15861,7 +15846,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1661</v>
       </c>
@@ -15878,7 +15863,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1664</v>
       </c>
@@ -15895,7 +15880,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1667</v>
       </c>
@@ -15912,7 +15897,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1670</v>
       </c>
@@ -15929,7 +15914,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1673</v>
       </c>
@@ -15946,7 +15931,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1676</v>
       </c>
@@ -15963,7 +15948,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1679</v>
       </c>
@@ -15980,7 +15965,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1682</v>
       </c>
@@ -15997,7 +15982,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1685</v>
       </c>
@@ -16014,7 +15999,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1687</v>
       </c>
@@ -16031,7 +16016,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1690</v>
       </c>
@@ -16048,7 +16033,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1693</v>
       </c>
@@ -16065,7 +16050,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1696</v>
       </c>
@@ -16082,7 +16067,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1699</v>
       </c>
@@ -16099,7 +16084,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>366</v>
       </c>
@@ -16116,7 +16101,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1702</v>
       </c>
@@ -16133,7 +16118,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1705</v>
       </c>
@@ -16150,7 +16135,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1708</v>
       </c>
@@ -16167,7 +16152,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1711</v>
       </c>
@@ -16184,7 +16169,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1714</v>
       </c>
@@ -16201,7 +16186,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1717</v>
       </c>
@@ -16218,7 +16203,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1720</v>
       </c>
@@ -16235,7 +16220,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1723</v>
       </c>
@@ -16252,7 +16237,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1726</v>
       </c>
@@ -16269,7 +16254,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1729</v>
       </c>
@@ -16286,7 +16271,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>773</v>
       </c>
@@ -16303,7 +16288,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1732</v>
       </c>
@@ -16320,7 +16305,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1735</v>
       </c>
@@ -16337,7 +16322,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1738</v>
       </c>
@@ -16354,7 +16339,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1741</v>
       </c>
@@ -16371,7 +16356,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1744</v>
       </c>
@@ -16388,7 +16373,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>1747</v>
       </c>
@@ -16405,7 +16390,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1750</v>
       </c>
@@ -16429,5 +16414,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/songs_short.xlsx
+++ b/data/songs_short.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaying\OneDrive\Documents\NUS\2023.2024\Sem2\DSA4213\Project\LLMasters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8EE633-F977-451E-9E39-B8F541D126B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620EFE80-A0CA-47DF-907C-C122C99CB662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="songs_short" sheetId="1" r:id="rId1"/>
@@ -5332,7 +5332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6203,11 +6203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
